--- a/xlsx/McLaren_intext.xlsx
+++ b/xlsx/McLaren_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="739">
   <si>
     <t>McLaren</t>
   </si>
@@ -29,7 +29,7 @@
     <t>迈凯伦F1</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_McLaren</t>
+    <t>政策_政策_混合动力车辆_McLaren</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/McLaren_Technology_Centre</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E4%B8%96%E7%95%8C%E4%B8%80%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>2017年世界一級方程式錦標賽</t>
+    <t>2017年世界一级方程式锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%89%98%E5%BC%97%C2%B7%E8%8C%83%E5%A4%9A%E6%81%A9</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E5%8D%97%E5%A4%9A%C2%B7%E9%98%BF%E9%9A%86%E7%B4%A2</t>
   </si>
   <si>
-    <t>費爾南多·阿隆索</t>
+    <t>费尔南多·阿隆索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%B8%8B%E4%BF%A1%E6%B2%BB</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E6%A3%AE%C2%B7%E5%B7%B4%E9%A0%93</t>
   </si>
   <si>
-    <t>詹森·巴頓</t>
+    <t>詹森·巴顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8D%E8%80%90%E5%8A%9B</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E9%98%BF%E5%B8%83%E9%81%94%E6%AF%94%E5%A4%A7%E7%8D%8E%E8%B3%BD</t>
   </si>
   <si>
-    <t>2017年阿布達比大獎賽</t>
+    <t>2017年阿布达比大奖赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%BA%A7%E6%96%B9%E7%A8%8B%E5%BC%8F%E4%B8%96%E7%95%8C%E8%BD%A6%E9%98%9F%E5%86%A0%E5%86%9B%E5%88%97%E8%A1%A8</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E4%B8%96%E7%95%8C%E4%B8%80%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>2016年世界一級方程式錦標賽</t>
+    <t>2016年世界一级方程式锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%BA%A7%E6%96%B9%E7%A8%8B%E5%BC%8F%E8%B5%9B%E8%BD%A6</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF500</t>
   </si>
   <si>
-    <t>印第安納波利斯500</t>
+    <t>印第安纳波利斯500</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Can-Am</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%87%B1%E5%80%AB%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>邁凱倫集團</t>
+    <t>迈凯伦集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%87%AF%E4%BC%A6%E6%B1%BD%E8%BD%A6</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%8E%AB%E6%A3%AE%C2%B7%E8%B2%BB%E8%BF%AA%E5%B8%95%E7%88%BE%E8%BF%AA</t>
   </si>
   <si>
-    <t>埃莫森·費迪帕爾迪</t>
+    <t>埃莫森·费迪帕尔迪</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Johnny_Rutherford</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%8A%E5%8A%A9%E5%95%86</t>
   </si>
   <si>
-    <t>贊助商</t>
+    <t>赞助商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%C2%B7%E8%8E%AB%E9%87%8C%E6%96%AF%E5%9B%BD%E9%99%85</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%BC%A2%E5%A7%86</t>
   </si>
   <si>
-    <t>布拉漢姆</t>
+    <t>布拉汉姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E5%A2%9E%E5%A3%93</t>
   </si>
   <si>
-    <t>渦輪增壓</t>
+    <t>涡轮增压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E5%A7%86%E6%96%AF%E8%BD%A6%E9%98%9F</t>
@@ -395,9 +395,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E8%B3%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>一級方程式賽車</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B5%9B%E5%BE%B7%E6%96%AF%C2%B7%E5%A5%94%E9%A9%B0</t>
   </si>
   <si>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E5%B8%95%E5%B8%83%E7%BE%85%C2%B7%E8%92%99%E6%89%98%E4%BA%9E</t>
   </si>
   <si>
-    <t>胡安·帕布羅·蒙托亞</t>
+    <t>胡安·帕布罗·蒙托亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
@@ -479,9 +476,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%C2%B7%E9%98%BF%E9%9A%86%E7%B4%A2</t>
   </si>
   <si>
-    <t>费尔南多·阿隆索</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
   </si>
   <si>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%BD%E8%AD%89%E6%9C%83</t>
   </si>
   <si>
-    <t>聽證會</t>
+    <t>听证会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%87%91</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E4%BC%AF%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>索伯車隊</t>
+    <t>索伯车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -611,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%90%89%E6%AD%90%C2%B7%E5%9F%B9%E7%91%9E%E8%8C%B2</t>
   </si>
   <si>
-    <t>塞吉歐·培瑞茲</t>
+    <t>塞吉欧·培瑞兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%AC</t>
@@ -629,13 +623,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%96%87%C2%B7%E9%A6%AC%E6%A0%BC%E5%8A%AA%E6%A3%AE</t>
   </si>
   <si>
-    <t>凱文·馬格努森</t>
+    <t>凯文·马格努森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -665,13 +659,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>布朗車隊</t>
+    <t>布朗车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%87%B1%E5%80%AB</t>
   </si>
   <si>
-    <t>邁凱倫</t>
+    <t>迈凯伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B5%9B%E5%BE%B7%E6%96%AF</t>
@@ -701,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E9%81%94%E8%B1%90</t>
   </si>
   <si>
-    <t>沃達豐</t>
+    <t>沃达丰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%85%8B%E6%A3%AE%E7%BE%8E%E5%AD%9A</t>
@@ -815,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E5%BA%AB%E5%A1%94</t>
   </si>
   <si>
-    <t>大衛·庫塔</t>
+    <t>大卫·库塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2003%E5%B9%B4%E4%B8%96%E7%95%8C%E4%B8%80%E7%BA%A7%E6%96%B9%E7%A8%8B%E5%BC%8F%E9%94%A6%E6%A0%87%E8%B5%9B</t>
@@ -839,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/1999%E5%B9%B4%E4%B8%96%E7%95%8C%E4%B8%80%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>1999年世界一級方程式錦標賽</t>
+    <t>1999年世界一级方程式锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E7%89%B9%E5%BC%82</t>
@@ -857,13 +851,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%C2%B7%E9%A6%AC%E6%A0%BC%E5%8A%AA%E6%A3%AE</t>
   </si>
   <si>
-    <t>揚·馬格努森</t>
+    <t>扬·马格努森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB</t>
   </si>
   <si>
-    <t>標緻</t>
+    <t>标致</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%B3%E7%89%8C</t>
@@ -929,31 +923,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%8A%9B%E9%87%8F%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>印度力量車隊</t>
+    <t>印度力量车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%96%AF%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>哈斯車隊</t>
+    <t>哈斯车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E5%B7%B4%E6%96%AF%E8%92%82%E5%AE%89%C2%B7%E7%B6%AD%E6%B3%B0%E7%88%BE</t>
   </si>
   <si>
-    <t>賽巴斯蒂安·維泰爾</t>
+    <t>赛巴斯蒂安·维泰尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%B2%BB%E5%A5%A7%C2%B7%E4%BD%A9%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>沙治奧·佩雷斯</t>
+    <t>沙治奥·佩雷斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%96%AF%E7%89%B9%E7%8F%AD%C2%B7%E5%A5%A7%E5%BA%B7</t>
   </si>
   <si>
-    <t>埃斯特班·奧康</t>
+    <t>埃斯特班·奥康</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9B%BC%C2%B7%E6%A0%BC%E7%BD%97%E6%96%AF%E8%AE%A9</t>
@@ -965,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%92%B8%E7%BE%8E%E9%A0%93</t>
   </si>
   <si>
-    <t>路易斯·咸美頓</t>
+    <t>路易斯·咸美顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B0%94%E7%89%B9%E5%88%A9%C2%B7%E5%8D%9A%E5%A1%94%E6%96%AF</t>
@@ -977,19 +971,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E7%89%9B%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>紅牛車隊</t>
+    <t>红牛车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E9%9B%85%E9%8C%B6</t>
   </si>
   <si>
-    <t>豪雅錶</t>
+    <t>豪雅表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E7%89%9B%E7%AC%AC%E4%BA%8C%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>紅牛第二車隊</t>
+    <t>红牛第二车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7%E9%87%8C%E5%A5%87%E4%BA%9A%E5%A4%9A</t>
@@ -1001,13 +995,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%96%AF%C2%B7%E7%B6%AD%E6%96%AF%E5%A1%94%E6%BD%98</t>
   </si>
   <si>
-    <t>馬克斯·維斯塔潘</t>
+    <t>马克斯·维斯塔潘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%E6%96%AF%C2%B7%E8%B3%80%E6%A0%B9%E5%A0%A1</t>
   </si>
   <si>
-    <t>尼古拉斯·賀根堡</t>
+    <t>尼古拉斯·贺根堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%8D%A1%E6%B4%9B%E6%96%AF%C2%B7%E5%A1%9E%E6%81%A9%E6%96%AF</t>
@@ -1025,25 +1019,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%96%AF%E5%8D%A1%C2%B7%E7%B6%AD%E7%88%BE%E8%8E%B1%E8%8C%B5</t>
   </si>
   <si>
-    <t>帕斯卡·維爾莱茵</t>
+    <t>帕斯卡·维尔莱茵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE%C2%B7%E8%93%8B%E6%96%AF%E5%88%A9</t>
   </si>
   <si>
-    <t>皮埃爾·蓋斯利</t>
+    <t>皮埃尔·盖斯利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%98%AD%E7%99%BB%C2%B7%E5%93%88%E7%89%B9%E5%88%A9</t>
   </si>
   <si>
-    <t>布蘭登·哈特利</t>
+    <t>布兰登·哈特利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E6%96%AF%C2%B7%E6%96%AF%E6%89%98%E7%88%BE</t>
   </si>
   <si>
-    <t>蘭斯·斯托爾</t>
+    <t>兰斯·斯托尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7%E7%A7%91%E7%BB%B4%E4%BA%9A%E7%89%B9</t>
@@ -1055,13 +1049,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E9%87%8C%E6%98%82%C2%B7%E5%B8%95%E7%88%BE%E9%BB%98</t>
   </si>
   <si>
-    <t>喬里昂·帕爾默</t>
+    <t>乔里昂·帕尔默</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7%C2%B7%E7%84%A6%E7%B6%AD%E7%B4%8D%E9%BD%8A</t>
   </si>
   <si>
-    <t>安東尼奧·焦維納齊</t>
+    <t>安东尼奥·焦维纳齐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97%C2%B7%E8%BF%AA%C2%B7%E9%9B%B7%E6%96%AF%E5%A1%94</t>
@@ -1151,15 +1145,12 @@
     <t>https://zh.wikipedia.org/wiki/F1%E4%B8%96%E7%95%8C%E8%BB%8A%E6%89%8B%E5%86%A0%E8%BB%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>F1世界車手冠軍列表</t>
+    <t>F1世界车手冠军列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E4%B8%96%E7%95%8C%E4%B8%80%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>2008年世界一級方程式錦標賽</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/McLaren_M2B</t>
   </si>
   <si>
@@ -1403,19 +1394,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%8B%89%E5%80%ABMP4-29</t>
   </si>
   <si>
-    <t>麥拉倫MP4-29</t>
+    <t>麦拉伦MP4-29</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%8B%89%E5%80%ABMP4-30</t>
   </si>
   <si>
-    <t>麥拉倫MP4-30</t>
+    <t>麦拉伦MP4-30</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%8B%89%E5%80%ABMP4-31</t>
   </si>
   <si>
-    <t>麥拉倫MP4-31</t>
+    <t>麦拉伦MP4-31</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/McLaren_MCL32</t>
@@ -1427,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%8B%89%E5%80%ABM4A</t>
   </si>
   <si>
-    <t>麥拉倫M4A</t>
+    <t>麦拉伦M4A</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/McLaren_M21</t>
@@ -1493,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E7%AE%AD%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>飛箭車隊</t>
+    <t>飞箭车队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Arzani-Volpini</t>
@@ -1529,7 +1520,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>英美車隊</t>
+    <t>英美车队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Behra-Porsche</t>
@@ -1613,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%8F%80%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>庫珀汽車公司</t>
+    <t>库珀汽车公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E6%96%AF%E6%B2%83%E6%96%AF</t>
@@ -1625,7 +1616,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%8B%89</t>
   </si>
   <si>
-    <t>達拉拉</t>
+    <t>达拉拉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/De_Tomaso</t>
@@ -1649,7 +1640,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>全美車隊</t>
+    <t>全美车队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eifelland</t>
@@ -1781,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%B7%B4%E5%B0%BC%E4%BA%9E%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>伊斯巴尼亞車隊</t>
+    <t>伊斯巴尼亚车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/HWM</t>
@@ -1793,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E8%B1%B9%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>捷豹車隊</t>
+    <t>捷豹车队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/JBW</t>
@@ -1913,7 +1904,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%AB%BE%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>馬諾車隊</t>
+    <t>马诺车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/March</t>
@@ -1943,7 +1934,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%89%B9%E6%8B%89</t>
   </si>
   <si>
-    <t>馬特拉</t>
+    <t>马特拉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/MBM_(automobile)</t>
@@ -1979,7 +1970,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%B4%8D%E7%88%BE%E8%BF%AA%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>米納爾迪車隊</t>
+    <t>米纳尔迪车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Modena</t>
@@ -2129,7 +2120,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E4%BA%9E%E4%B9%85%E9%87%8C%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>超級亞久里車隊</t>
+    <t>超级亚久里车队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Surtees</t>
@@ -2165,7 +2156,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%88%A9%E8%B3%BD%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>德利賽車隊</t>
+    <t>德利赛车队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Token_Racing</t>
@@ -2183,7 +2174,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>豐田車隊</t>
+    <t>丰田车队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Trojan%E2%80%93Tauranac_Racing</t>
@@ -3107,7 +3098,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -3136,7 +3127,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -4438,7 +4429,7 @@
         <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
@@ -4464,10 +4455,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4493,10 +4484,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>11</v>
@@ -4522,10 +4513,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4551,10 +4542,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4580,10 +4571,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>10</v>
@@ -4609,10 +4600,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -4638,10 +4629,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>10</v>
@@ -4667,10 +4658,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4696,10 +4687,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4725,10 +4716,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4754,10 +4745,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4783,10 +4774,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4812,10 +4803,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -4841,10 +4832,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="G78" t="n">
         <v>7</v>
@@ -4870,10 +4861,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4899,10 +4890,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4928,10 +4919,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -4957,10 +4948,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4986,10 +4977,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
@@ -5015,10 +5006,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5044,10 +5035,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5073,10 +5064,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5102,10 +5093,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5131,10 +5122,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5160,10 +5151,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>4</v>
@@ -5189,10 +5180,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5218,10 +5209,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -5247,10 +5238,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5276,10 +5267,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5305,10 +5296,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>6</v>
@@ -5334,10 +5325,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5363,10 +5354,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>10</v>
@@ -5392,10 +5383,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5421,10 +5412,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F98" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5450,10 +5441,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5479,10 +5470,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5508,10 +5499,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5537,10 +5528,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5566,10 +5557,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>19</v>
@@ -5595,10 +5586,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -5624,10 +5615,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5653,10 +5644,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F106" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="G106" t="n">
         <v>21</v>
@@ -5682,10 +5673,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5740,10 +5731,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5769,10 +5760,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5798,10 +5789,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5827,10 +5818,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5856,10 +5847,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>111</v>
@@ -5885,10 +5876,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>50</v>
@@ -5914,10 +5905,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5943,10 +5934,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5972,10 +5963,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6001,10 +5992,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6059,10 +6050,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>22</v>
@@ -6088,10 +6079,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>10</v>
@@ -6117,10 +6108,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>20</v>
@@ -6146,10 +6137,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>22</v>
@@ -6175,10 +6166,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>39</v>
@@ -6204,10 +6195,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6233,10 +6224,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>5</v>
@@ -6262,10 +6253,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6291,10 +6282,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>4</v>
@@ -6320,10 +6311,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>8</v>
@@ -6349,10 +6340,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>8</v>
@@ -6378,10 +6369,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>8</v>
@@ -6407,10 +6398,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F132" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6436,10 +6427,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>7</v>
@@ -6465,10 +6456,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>12</v>
@@ -6494,10 +6485,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>5</v>
@@ -6523,10 +6514,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6552,10 +6543,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>7</v>
@@ -6581,10 +6572,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -6610,10 +6601,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>9</v>
@@ -6639,10 +6630,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -6668,10 +6659,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>4</v>
@@ -6697,10 +6688,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -6755,10 +6746,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -6784,10 +6775,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>27</v>
@@ -6813,10 +6804,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6842,10 +6833,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6871,10 +6862,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6900,10 +6891,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G149" t="n">
         <v>14</v>
@@ -6929,10 +6920,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G150" t="n">
         <v>17</v>
@@ -6987,10 +6978,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7016,10 +7007,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>6</v>
@@ -7045,10 +7036,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -7103,10 +7094,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7132,10 +7123,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>5</v>
@@ -7161,10 +7152,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7219,10 +7210,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F160" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7248,10 +7239,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F161" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G161" t="n">
         <v>7</v>
@@ -7277,10 +7268,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F162" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7306,10 +7297,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F163" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7335,10 +7326,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F164" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7364,10 +7355,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F165" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7393,10 +7384,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7422,10 +7413,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F167" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7451,10 +7442,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7480,10 +7471,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F169" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7509,10 +7500,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F170" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G170" t="n">
         <v>5</v>
@@ -7538,10 +7529,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F171" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7567,10 +7558,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F172" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -7596,10 +7587,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F173" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -7654,10 +7645,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F175" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7683,10 +7674,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F176" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7712,10 +7703,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F177" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7741,10 +7732,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F178" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7770,10 +7761,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F179" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7799,10 +7790,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F180" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7828,10 +7819,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F181" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7857,10 +7848,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F182" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7886,10 +7877,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F183" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7915,10 +7906,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F184" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7944,10 +7935,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F185" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7973,10 +7964,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F186" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8002,10 +7993,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F187" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8031,10 +8022,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F188" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G188" t="n">
         <v>6</v>
@@ -8060,10 +8051,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F189" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8089,10 +8080,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F190" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8118,10 +8109,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F191" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8147,10 +8138,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F192" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8176,10 +8167,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F193" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8205,10 +8196,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F194" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8234,10 +8225,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F195" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8263,10 +8254,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F196" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8292,10 +8283,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F197" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8321,10 +8312,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F198" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8350,10 +8341,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F199" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8379,10 +8370,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F200" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8408,10 +8399,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F201" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8437,10 +8428,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F202" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8466,10 +8457,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F203" t="s">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8524,10 +8515,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F205" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8553,10 +8544,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F206" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8582,10 +8573,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F207" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8611,10 +8602,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F208" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G208" t="n">
         <v>4</v>
@@ -8640,10 +8631,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F209" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8669,10 +8660,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8698,10 +8689,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F211" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8727,10 +8718,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8756,10 +8747,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F213" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8785,10 +8776,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F214" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8814,10 +8805,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F215" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8843,10 +8834,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F216" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8872,10 +8863,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F217" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G217" t="n">
         <v>13</v>
@@ -8901,10 +8892,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F218" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -8930,10 +8921,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F219" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8959,10 +8950,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8988,10 +8979,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9017,10 +9008,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F222" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9046,10 +9037,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F223" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9075,10 +9066,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F224" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9104,10 +9095,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F225" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9133,10 +9124,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F226" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -9162,10 +9153,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F227" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9191,10 +9182,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9220,10 +9211,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F229" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9249,10 +9240,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F230" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9278,10 +9269,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F231" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9307,10 +9298,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F232" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9336,10 +9327,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F233" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9365,10 +9356,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F234" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9394,10 +9385,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F235" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9423,10 +9414,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F236" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9452,10 +9443,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F237" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9481,10 +9472,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F238" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9510,10 +9501,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F239" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9539,10 +9530,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F240" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9568,10 +9559,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F241" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9597,10 +9588,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F242" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9626,10 +9617,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9655,10 +9646,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9684,10 +9675,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F245" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9713,10 +9704,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F246" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -9742,10 +9733,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F247" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9771,10 +9762,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F248" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9800,10 +9791,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F249" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9829,10 +9820,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F250" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9858,10 +9849,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F251" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G251" t="n">
         <v>3</v>
@@ -9916,10 +9907,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F253" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9945,10 +9936,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F254" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G254" t="n">
         <v>3</v>
@@ -9974,10 +9965,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F255" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10032,10 +10023,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F257" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10061,10 +10052,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F258" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10090,10 +10081,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F259" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10119,10 +10110,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F260" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10148,10 +10139,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F261" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10177,10 +10168,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F262" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10206,10 +10197,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F263" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10235,10 +10226,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F264" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10264,10 +10255,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F265" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10293,10 +10284,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F266" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10322,10 +10313,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F267" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10351,10 +10342,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F268" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10380,10 +10371,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F269" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10409,10 +10400,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F270" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10438,10 +10429,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F271" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10467,10 +10458,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F272" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10496,10 +10487,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F273" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10525,10 +10516,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F274" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10554,10 +10545,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F275" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10583,10 +10574,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F276" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G276" t="n">
         <v>3</v>
@@ -10612,10 +10603,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F277" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10641,10 +10632,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F278" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10670,10 +10661,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F279" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10699,10 +10690,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F280" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10728,10 +10719,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F281" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -10757,10 +10748,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F282" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10786,10 +10777,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F283" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10815,10 +10806,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F284" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -10844,10 +10835,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F285" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10873,10 +10864,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F286" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10902,10 +10893,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F287" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10931,10 +10922,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F288" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -10960,10 +10951,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F289" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -10989,10 +10980,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F290" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -11018,10 +11009,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F291" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11047,10 +11038,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F292" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -11076,10 +11067,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F293" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -11105,10 +11096,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F294" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11134,10 +11125,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F295" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11163,10 +11154,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F296" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11192,10 +11183,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F297" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11221,10 +11212,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F298" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -11250,10 +11241,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F299" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11279,10 +11270,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F300" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11308,10 +11299,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F301" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11337,10 +11328,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F302" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11366,10 +11357,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F303" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11395,10 +11386,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F304" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11424,10 +11415,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F305" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11453,10 +11444,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F306" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11482,10 +11473,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F307" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11511,10 +11502,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F308" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -11540,10 +11531,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F309" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11569,10 +11560,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F310" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11598,10 +11589,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F311" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11627,10 +11618,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F312" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11656,10 +11647,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F313" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11685,10 +11676,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F314" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11714,10 +11705,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F315" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11743,10 +11734,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F316" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -11772,10 +11763,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F317" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11801,10 +11792,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F318" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -11830,10 +11821,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F319" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -11859,10 +11850,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F320" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11888,10 +11879,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F321" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -11917,10 +11908,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F322" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11946,10 +11937,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F323" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -11975,10 +11966,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F324" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12004,10 +11995,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F325" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12033,10 +12024,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F326" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12062,10 +12053,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F327" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12091,10 +12082,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F328" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12120,10 +12111,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F329" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12149,10 +12140,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F330" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12178,10 +12169,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F331" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12207,10 +12198,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F332" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12236,10 +12227,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F333" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12265,10 +12256,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F334" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12294,10 +12285,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F335" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12323,10 +12314,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F336" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12352,10 +12343,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F337" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12381,10 +12372,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F338" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12410,10 +12401,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F339" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12439,10 +12430,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F340" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12468,10 +12459,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F341" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12497,10 +12488,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F342" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12526,10 +12517,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F343" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -12555,10 +12546,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F344" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12584,10 +12575,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F345" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12613,10 +12604,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F346" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12642,10 +12633,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F347" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12671,10 +12662,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F348" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12700,10 +12691,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F349" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12729,10 +12720,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F350" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -12758,10 +12749,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F351" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12787,10 +12778,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F352" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12816,10 +12807,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F353" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12845,10 +12836,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F354" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G354" t="n">
         <v>3</v>
@@ -12874,10 +12865,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F355" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12903,10 +12894,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F356" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12932,10 +12923,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F357" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12961,10 +12952,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F358" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -12990,10 +12981,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F359" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13019,10 +13010,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F360" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13048,10 +13039,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F361" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13077,10 +13068,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F362" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13106,10 +13097,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F363" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13135,10 +13126,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F364" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13164,10 +13155,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F365" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13193,10 +13184,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F366" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13222,10 +13213,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F367" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13251,10 +13242,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F368" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13280,10 +13271,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F369" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13309,10 +13300,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F370" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13338,10 +13329,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F371" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13367,10 +13358,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F372" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G372" t="n">
         <v>3</v>
@@ -13396,10 +13387,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F373" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G373" t="n">
         <v>4</v>
@@ -13425,10 +13416,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F374" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -13454,10 +13445,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F375" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -13483,10 +13474,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F376" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13512,10 +13503,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F377" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G377" t="n">
         <v>4</v>
@@ -13541,10 +13532,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F378" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13570,10 +13561,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F379" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -13599,10 +13590,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F380" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13628,10 +13619,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F381" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13657,10 +13648,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F382" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13686,10 +13677,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F383" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -13715,10 +13706,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F384" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13744,10 +13735,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F385" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13773,10 +13764,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F386" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13802,10 +13793,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F387" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13831,10 +13822,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F388" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -13889,10 +13880,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F390" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G390" t="n">
         <v>5</v>
@@ -13918,10 +13909,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F391" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
